--- a/Projects 2022/Ahmed Villa/095- Invoice for Misc wprk - Ahmed villa.xlsx
+++ b/Projects 2022/Ahmed Villa/095- Invoice for Misc wprk - Ahmed villa.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F8C713-05FA-4F77-A391-749DF066168F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BDD1AF-A9D3-4822-9C55-C056263234FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,6 +403,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,9 +444,6 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A11:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,11 +977,11 @@
   </cols>
   <sheetData>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="F11" s="36" t="s">
+      <c r="B11" s="26"/>
+      <c r="F11" s="23" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1006,32 +1006,32 @@
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
@@ -1060,16 +1060,16 @@
       <c r="B22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="31">
         <v>1</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="34">
         <v>85000</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="34">
         <f>E22*D22</f>
         <v>85000</v>
       </c>
@@ -1081,10 +1081,10 @@
       <c r="B23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
@@ -1093,10 +1093,10 @@
       <c r="B24" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
@@ -1105,10 +1105,10 @@
       <c r="B25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
@@ -1117,10 +1117,10 @@
       <c r="B26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
@@ -1129,45 +1129,45 @@
       <c r="B27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="13">
         <f>SUM(F22:F22)</f>
         <v>85000</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="12">
         <f>F28*13%</f>
         <v>11050</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="12">
         <f>F29+F28</f>
         <v>96050</v>
